--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H2">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I2">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J2">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>31.72337097066666</v>
+        <v>0.2928550785955555</v>
       </c>
       <c r="R2">
-        <v>285.5103387359999</v>
+        <v>2.63569570736</v>
       </c>
       <c r="S2">
-        <v>0.003104474924919669</v>
+        <v>5.455775945063474E-05</v>
       </c>
       <c r="T2">
-        <v>0.003221059233732708</v>
+        <v>5.688696407771973E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H3">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I3">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J3">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>1493.482458951333</v>
+        <v>18.71900714910222</v>
       </c>
       <c r="R3">
-        <v>13441.342130562</v>
+        <v>168.47106434192</v>
       </c>
       <c r="S3">
-        <v>0.1461534100177736</v>
+        <v>0.003487278056071691</v>
       </c>
       <c r="T3">
-        <v>0.1516420013898014</v>
+        <v>0.003636158513515762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H4">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I4">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J4">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>943.1742927913332</v>
+        <v>13.80951774247111</v>
       </c>
       <c r="R4">
-        <v>8488.568635121999</v>
+        <v>124.28565968224</v>
       </c>
       <c r="S4">
-        <v>0.09229980459854022</v>
+        <v>0.00257265931919695</v>
       </c>
       <c r="T4">
-        <v>0.09576599749200602</v>
+        <v>0.002682492458433704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H5">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I5">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J5">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>333.2440178119999</v>
+        <v>2.943085826586667</v>
       </c>
       <c r="R5">
-        <v>1999.464106872</v>
+        <v>17.65851495952</v>
       </c>
       <c r="S5">
-        <v>0.03261153104231711</v>
+        <v>0.0005482854159112565</v>
       </c>
       <c r="T5">
-        <v>0.02255747498486333</v>
+        <v>0.0003811287104816323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H6">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I6">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J6">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>1123.424256455333</v>
+        <v>17.28393801329777</v>
       </c>
       <c r="R6">
-        <v>10110.818308098</v>
+        <v>155.55544211968</v>
       </c>
       <c r="S6">
-        <v>0.1099392128735937</v>
+        <v>0.003219930270669694</v>
       </c>
       <c r="T6">
-        <v>0.1140678296137174</v>
+        <v>0.003357396995125653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H7">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I7">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J7">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>3.210144924815111</v>
+        <v>23.36523082733332</v>
       </c>
       <c r="R7">
-        <v>28.891304323336</v>
+        <v>210.287077446</v>
       </c>
       <c r="S7">
-        <v>0.0003141473973135339</v>
+        <v>0.004352851414083529</v>
       </c>
       <c r="T7">
-        <v>0.0003259447730588578</v>
+        <v>0.004538685322161637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H8">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I8">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J8">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
-        <v>151.1281742515985</v>
+        <v>1493.482458951333</v>
       </c>
       <c r="R8">
-        <v>1360.153568264387</v>
+        <v>13441.342130562</v>
       </c>
       <c r="S8">
-        <v>0.01478952624066352</v>
+        <v>0.27822995978068</v>
       </c>
       <c r="T8">
-        <v>0.0153449266662233</v>
+        <v>0.2901082794961589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H9">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I9">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J9">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>95.44150185110522</v>
+        <v>1101.782394262666</v>
       </c>
       <c r="R9">
-        <v>858.973516659947</v>
+        <v>9916.041548363997</v>
       </c>
       <c r="S9">
-        <v>0.009339983117412182</v>
+        <v>0.2052577647667921</v>
       </c>
       <c r="T9">
-        <v>0.009690733406077222</v>
+        <v>0.2140207224148701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H10">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I10">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J10">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>33.72156110059533</v>
+        <v>234.811975987</v>
       </c>
       <c r="R10">
-        <v>202.329366603572</v>
+        <v>1408.871855922</v>
       </c>
       <c r="S10">
-        <v>0.003300019438752121</v>
+        <v>0.04374455571494189</v>
       </c>
       <c r="T10">
-        <v>0.002282631436181863</v>
+        <v>0.03040807876043569</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H11">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I11">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J11">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>113.6813196368359</v>
+        <v>1378.986504938666</v>
       </c>
       <c r="R11">
-        <v>1023.131876731523</v>
+        <v>12410.878544448</v>
       </c>
       <c r="S11">
-        <v>0.01112494654400589</v>
+        <v>0.2568998099091087</v>
       </c>
       <c r="T11">
-        <v>0.01154272869228609</v>
+        <v>0.2678674931857464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H12">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I12">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J12">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>2.012794213313333</v>
+        <v>0.8750702375452222</v>
       </c>
       <c r="R12">
-        <v>12.07676527988</v>
+        <v>7.875632137906999</v>
       </c>
       <c r="S12">
-        <v>0.0001969736813289026</v>
+        <v>0.0001630221738047283</v>
       </c>
       <c r="T12">
-        <v>0.0001362471723111551</v>
+        <v>0.0001699819904351565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H13">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I13">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J13">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>94.75893510313917</v>
+        <v>55.93362461436989</v>
       </c>
       <c r="R13">
-        <v>568.553610618835</v>
+        <v>503.4026215293291</v>
       </c>
       <c r="S13">
-        <v>0.009273186579440099</v>
+        <v>0.0104202162091486</v>
       </c>
       <c r="T13">
-        <v>0.006414285610333853</v>
+        <v>0.01086508080868436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H14">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I14">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J14">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>59.84281306143917</v>
+        <v>41.26374734302644</v>
       </c>
       <c r="R14">
-        <v>359.056878368635</v>
+        <v>371.373726087238</v>
       </c>
       <c r="S14">
-        <v>0.005856266433906945</v>
+        <v>0.007687275263823173</v>
       </c>
       <c r="T14">
-        <v>0.004050793672217745</v>
+        <v>0.008015463908196921</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H15">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I15">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J15">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>21.143769093565</v>
+        <v>8.794134032908167</v>
       </c>
       <c r="R15">
-        <v>84.57507637425999</v>
+        <v>52.764804197449</v>
       </c>
       <c r="S15">
-        <v>0.00206914646712542</v>
+        <v>0.001638312886513574</v>
       </c>
       <c r="T15">
-        <v>0.0009541557475817235</v>
+        <v>0.001138837655866856</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5099975</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H16">
-        <v>1.019995</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I16">
-        <v>0.02437103020553123</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J16">
-        <v>0.01638042272939329</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>71.27936827961916</v>
+        <v>51.64554364413511</v>
       </c>
       <c r="R16">
-        <v>427.676209677715</v>
+        <v>464.809892797216</v>
       </c>
       <c r="S16">
-        <v>0.00697545704372986</v>
+        <v>0.009621363441421785</v>
       </c>
       <c r="T16">
-        <v>0.004824940526948812</v>
+        <v>0.01003212305604458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H17">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I17">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J17">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>45.64331356893155</v>
+        <v>2.033513420946666</v>
       </c>
       <c r="R17">
-        <v>410.789822120384</v>
+        <v>12.20108052568</v>
       </c>
       <c r="S17">
-        <v>0.004466691846715051</v>
+        <v>0.0003788356226967248</v>
       </c>
       <c r="T17">
-        <v>0.004634432348482378</v>
+        <v>0.0002633393633550133</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H18">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I18">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J18">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>2148.80972916297</v>
+        <v>129.9801678258266</v>
       </c>
       <c r="R18">
-        <v>19339.28756246673</v>
+        <v>779.88100695496</v>
       </c>
       <c r="S18">
-        <v>0.2102842705076394</v>
+        <v>0.02421479853995677</v>
       </c>
       <c r="T18">
-        <v>0.2181812086128881</v>
+        <v>0.01683239180594949</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H19">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I19">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J19">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>1357.031068225263</v>
+        <v>95.88988451485331</v>
       </c>
       <c r="R19">
-        <v>12213.27961402737</v>
+        <v>575.3393070891199</v>
       </c>
       <c r="S19">
-        <v>0.1328001657685671</v>
+        <v>0.01786391165964881</v>
       </c>
       <c r="T19">
-        <v>0.1377872943203579</v>
+        <v>0.01241771058908074</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.56500533333333</v>
+        <v>0.69956</v>
       </c>
       <c r="H20">
-        <v>34.695016</v>
+        <v>1.39912</v>
       </c>
       <c r="I20">
-        <v>0.5526519135991772</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J20">
-        <v>0.5571782495826586</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>479.4686294223947</v>
+        <v>20.43606194594</v>
       </c>
       <c r="R20">
-        <v>2876.811776534368</v>
+        <v>81.74424778375999</v>
       </c>
       <c r="S20">
-        <v>0.04692119064849005</v>
+        <v>0.003807158670806762</v>
       </c>
       <c r="T20">
-        <v>0.03245550118269194</v>
+        <v>0.001764309162946868</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.69956</v>
+      </c>
+      <c r="H21">
+        <v>1.39912</v>
+      </c>
+      <c r="I21">
+        <v>0.06862310596362613</v>
+      </c>
+      <c r="J21">
+        <v>0.04681970858352177</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>171.5584106666666</v>
+      </c>
+      <c r="N21">
+        <v>514.6752319999999</v>
+      </c>
+      <c r="O21">
+        <v>0.3258144783240821</v>
+      </c>
+      <c r="P21">
+        <v>0.331953319069988</v>
+      </c>
+      <c r="Q21">
+        <v>120.0154017659733</v>
+      </c>
+      <c r="R21">
+        <v>720.0924105958399</v>
+      </c>
+      <c r="S21">
+        <v>0.02235840147051706</v>
+      </c>
+      <c r="T21">
+        <v>0.01554195766218966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.164669</v>
+      </c>
+      <c r="I22">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J22">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.906846333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.720538999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.005520525738044089</v>
+      </c>
+      <c r="P22">
+        <v>0.005624540846623205</v>
+      </c>
+      <c r="Q22">
+        <v>3.066402159621222</v>
+      </c>
+      <c r="R22">
+        <v>27.597619436591</v>
+      </c>
+      <c r="S22">
+        <v>0.0005712587680084727</v>
+      </c>
+      <c r="T22">
+        <v>0.0005956472065936779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.164669</v>
+      </c>
+      <c r="I23">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J23">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N23">
+        <v>557.408233</v>
+      </c>
+      <c r="O23">
+        <v>0.3528665483720876</v>
+      </c>
+      <c r="P23">
+        <v>0.3595150912979765</v>
+      </c>
+      <c r="Q23">
+        <v>196.0013950355419</v>
+      </c>
+      <c r="R23">
+        <v>1764.012555319877</v>
+      </c>
+      <c r="S23">
+        <v>0.03651429578623062</v>
+      </c>
+      <c r="T23">
+        <v>0.03807318067366799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.164669</v>
+      </c>
+      <c r="I24">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J24">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>137.0717086666666</v>
+      </c>
+      <c r="N24">
+        <v>411.2151259999999</v>
+      </c>
+      <c r="O24">
+        <v>0.2603191943704447</v>
+      </c>
+      <c r="P24">
+        <v>0.2652240042658267</v>
+      </c>
+      <c r="Q24">
+        <v>144.5955290648104</v>
+      </c>
+      <c r="R24">
+        <v>1301.359761583294</v>
+      </c>
+      <c r="S24">
+        <v>0.02693758336098364</v>
+      </c>
+      <c r="T24">
+        <v>0.02808761489524527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H21">
-        <v>34.695016</v>
-      </c>
-      <c r="I21">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J21">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>139.7641523333333</v>
-      </c>
-      <c r="N21">
-        <v>419.292457</v>
-      </c>
-      <c r="O21">
-        <v>0.2862192112890951</v>
-      </c>
-      <c r="P21">
-        <v>0.2945553119511906</v>
-      </c>
-      <c r="Q21">
-        <v>1616.373167143812</v>
-      </c>
-      <c r="R21">
-        <v>14547.35850429431</v>
-      </c>
-      <c r="S21">
-        <v>0.1581795948277656</v>
-      </c>
-      <c r="T21">
-        <v>0.1641198131182383</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.164669</v>
+      </c>
+      <c r="I25">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J25">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.2127365</v>
+      </c>
+      <c r="N25">
+        <v>58.425473</v>
+      </c>
+      <c r="O25">
+        <v>0.05547925319534149</v>
+      </c>
+      <c r="P25">
+        <v>0.03768304451958546</v>
+      </c>
+      <c r="Q25">
+        <v>30.81621386890617</v>
+      </c>
+      <c r="R25">
+        <v>184.897283213437</v>
+      </c>
+      <c r="S25">
+        <v>0.005740940507168013</v>
+      </c>
+      <c r="T25">
+        <v>0.003990690229854411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.054889666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.164669</v>
+      </c>
+      <c r="I26">
+        <v>0.1034790516547557</v>
+      </c>
+      <c r="J26">
+        <v>0.1059014811762431</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>171.5584106666666</v>
+      </c>
+      <c r="N26">
+        <v>514.6752319999999</v>
+      </c>
+      <c r="O26">
+        <v>0.3258144783240821</v>
+      </c>
+      <c r="P26">
+        <v>0.331953319069988</v>
+      </c>
+      <c r="Q26">
+        <v>180.9751946420231</v>
+      </c>
+      <c r="R26">
+        <v>1628.776751778208</v>
+      </c>
+      <c r="S26">
+        <v>0.03371497323236498</v>
+      </c>
+      <c r="T26">
+        <v>0.03515434817088176</v>
       </c>
     </row>
   </sheetData>
